--- a/output/comment_cooc_freq.xlsx
+++ b/output/comment_cooc_freq.xlsx
@@ -40,13 +40,13 @@
     <t>โชคชัย</t>
   </si>
   <si>
+    <t>เอ็มมิลค์</t>
+  </si>
+  <si>
     <t>คาเนชั่น</t>
   </si>
   <si>
     <t>หนองโพ</t>
-  </si>
-  <si>
-    <t>เอ็มมิลค์</t>
   </si>
   <si>
     <t>บีทาเก้น</t>
@@ -1578,13 +1578,13 @@
         <v>62</v>
       </c>
       <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
         <v>12</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>78</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1605,7 +1605,7 @@
         <v>38</v>
       </c>
       <c r="S2">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="T2">
         <v>8</v>
@@ -2168,13 +2168,13 @@
         <v>45</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>104</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>22</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>30</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>12</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -3938,13 +3938,13 @@
         <v>30</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>75</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4531,10 +4531,10 @@
         <v>0</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>28</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -5118,13 +5118,13 @@
         <v>18</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
         <v>52</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -5145,7 +5145,7 @@
         <v>13</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>15</v>
@@ -5711,10 +5711,10 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>52</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -6274,25 +6274,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -6334,28 +6334,28 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -6382,16 +6382,16 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -6403,34 +6403,34 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV10">
         <v>0</v>
       </c>
       <c r="AW10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY10">
         <v>0</v>
       </c>
       <c r="AZ10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BA10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BB10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC10">
         <v>0</v>
@@ -6442,22 +6442,22 @@
         <v>0</v>
       </c>
       <c r="BF10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH10">
         <v>0</v>
       </c>
       <c r="BI10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL10">
         <v>0</v>
@@ -6466,13 +6466,13 @@
         <v>0</v>
       </c>
       <c r="BN10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ10">
         <v>0</v>
@@ -6481,43 +6481,43 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BX10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY10">
         <v>0</v>
       </c>
       <c r="BZ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CB10">
         <v>0</v>
       </c>
       <c r="CC10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CD10">
         <v>0</v>
       </c>
       <c r="CE10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF10">
         <v>2</v>
@@ -6550,19 +6550,19 @@
         <v>0</v>
       </c>
       <c r="CP10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CQ10">
         <v>4</v>
       </c>
       <c r="CR10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CT10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU10">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="CW10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CX10">
         <v>2</v>
@@ -6583,22 +6583,22 @@
         <v>0</v>
       </c>
       <c r="DA10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC10">
         <v>0</v>
       </c>
       <c r="DD10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DE10">
         <v>0</v>
       </c>
       <c r="DF10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DG10">
         <v>0</v>
@@ -6637,13 +6637,13 @@
         <v>0</v>
       </c>
       <c r="DS10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DT10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DU10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DV10">
         <v>0</v>
@@ -6664,16 +6664,16 @@
         <v>0</v>
       </c>
       <c r="EB10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EC10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ED10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF10">
         <v>0</v>
@@ -6682,25 +6682,25 @@
         <v>0</v>
       </c>
       <c r="EH10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ10">
         <v>0</v>
       </c>
       <c r="EK10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EL10">
         <v>0</v>
       </c>
       <c r="EM10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EN10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EO10">
         <v>0</v>
@@ -6712,10 +6712,10 @@
         <v>0</v>
       </c>
       <c r="ER10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ES10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="ET10">
         <v>0</v>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="EW10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EX10">
         <v>0</v>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="FA10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FB10">
         <v>0</v>
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="FF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG10">
         <v>0</v>
@@ -6778,10 +6778,10 @@
         <v>0</v>
       </c>
       <c r="FN10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FO10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FP10">
         <v>0</v>
@@ -6864,28 +6864,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6900,199 +6900,199 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>2</v>
+      </c>
+      <c r="AO11">
         <v>12</v>
       </c>
-      <c r="P11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>2</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
         <v>5</v>
       </c>
-      <c r="Q11">
+      <c r="BA11">
+        <v>12</v>
+      </c>
+      <c r="BB11">
+        <v>4</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
         <v>5</v>
       </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>2</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>31</v>
-      </c>
-      <c r="W11">
-        <v>6</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>4</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>2</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>7</v>
+      </c>
+      <c r="BJ11">
+        <v>1</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>1</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>1</v>
+      </c>
+      <c r="BT11">
+        <v>1</v>
+      </c>
+      <c r="BU11">
+        <v>1</v>
+      </c>
+      <c r="BV11">
+        <v>2</v>
+      </c>
+      <c r="BW11">
         <v>16</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>7</v>
-      </c>
-      <c r="AM11">
-        <v>1</v>
-      </c>
-      <c r="AN11">
-        <v>17</v>
-      </c>
-      <c r="AO11">
-        <v>32</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>2</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>38</v>
-      </c>
-      <c r="AT11">
-        <v>22</v>
-      </c>
-      <c r="AU11">
-        <v>2</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>91</v>
-      </c>
-      <c r="AX11">
-        <v>55</v>
-      </c>
-      <c r="AY11">
-        <v>2</v>
-      </c>
-      <c r="AZ11">
-        <v>13</v>
-      </c>
-      <c r="BA11">
-        <v>28</v>
-      </c>
-      <c r="BB11">
-        <v>30</v>
-      </c>
-      <c r="BC11">
-        <v>1</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>2</v>
-      </c>
-      <c r="BG11">
-        <v>69</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
-      <c r="BI11">
-        <v>6</v>
-      </c>
-      <c r="BJ11">
-        <v>2</v>
-      </c>
-      <c r="BK11">
-        <v>4</v>
-      </c>
-      <c r="BL11">
-        <v>2</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>11</v>
-      </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>2</v>
-      </c>
-      <c r="BQ11">
-        <v>3</v>
-      </c>
-      <c r="BR11">
-        <v>11</v>
-      </c>
-      <c r="BS11">
-        <v>26</v>
-      </c>
-      <c r="BT11">
-        <v>9</v>
-      </c>
-      <c r="BU11">
-        <v>0</v>
-      </c>
-      <c r="BV11">
-        <v>4</v>
-      </c>
-      <c r="BW11">
-        <v>48</v>
-      </c>
       <c r="BX11">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BY11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BZ11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CA11">
         <v>0</v>
@@ -7104,112 +7104,112 @@
         <v>2</v>
       </c>
       <c r="CD11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="CE11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CF11">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="CG11">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="CH11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CI11">
         <v>0</v>
       </c>
       <c r="CJ11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CK11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM11">
         <v>0</v>
       </c>
       <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>4</v>
+      </c>
+      <c r="CR11">
+        <v>1</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>3</v>
+      </c>
+      <c r="CX11">
+        <v>2</v>
+      </c>
+      <c r="CY11">
+        <v>2</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>1</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11">
         <v>5</v>
       </c>
-      <c r="CO11">
-        <v>0</v>
-      </c>
-      <c r="CP11">
-        <v>18</v>
-      </c>
-      <c r="CQ11">
-        <v>56</v>
-      </c>
-      <c r="CR11">
-        <v>12</v>
-      </c>
-      <c r="CS11">
-        <v>1</v>
-      </c>
-      <c r="CT11">
-        <v>0</v>
-      </c>
-      <c r="CU11">
-        <v>0</v>
-      </c>
-      <c r="CV11">
-        <v>3</v>
-      </c>
-      <c r="CW11">
-        <v>9</v>
-      </c>
-      <c r="CX11">
-        <v>39</v>
-      </c>
-      <c r="CY11">
-        <v>7</v>
-      </c>
-      <c r="CZ11">
-        <v>7</v>
-      </c>
-      <c r="DA11">
-        <v>0</v>
-      </c>
-      <c r="DB11">
-        <v>40</v>
-      </c>
-      <c r="DC11">
-        <v>0</v>
-      </c>
-      <c r="DD11">
-        <v>27</v>
-      </c>
       <c r="DE11">
         <v>0</v>
       </c>
       <c r="DF11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="DG11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="DH11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL11">
         <v>0</v>
       </c>
       <c r="DM11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DN11">
         <v>0</v>
@@ -7221,73 +7221,73 @@
         <v>0</v>
       </c>
       <c r="DQ11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DR11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="DT11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DU11">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DV11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DW11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="DX11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DY11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EB11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="EC11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="ED11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EH11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EI11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EJ11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EK11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EN11">
         <v>0</v>
@@ -7299,16 +7299,16 @@
         <v>0</v>
       </c>
       <c r="EQ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER11">
         <v>0</v>
       </c>
       <c r="ES11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="ET11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU11">
         <v>0</v>
@@ -7320,31 +7320,31 @@
         <v>2</v>
       </c>
       <c r="EX11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EY11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FE11">
         <v>0</v>
       </c>
       <c r="FF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG11">
         <v>0</v>
@@ -7353,10 +7353,10 @@
         <v>0</v>
       </c>
       <c r="FI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FK11">
         <v>0</v>
@@ -7374,13 +7374,13 @@
         <v>0</v>
       </c>
       <c r="FP11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FR11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FS11">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="GB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC11">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="GF11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG11">
         <v>0</v>
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="GM11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GN11">
         <v>0</v>
@@ -7454,28 +7454,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -7490,40 +7490,40 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -7535,10 +7535,10 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -7562,31 +7562,31 @@
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AO12">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AP12">
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AU12">
         <v>2</v>
@@ -7595,25 +7595,25 @@
         <v>0</v>
       </c>
       <c r="AW12">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="AX12">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="AY12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ12">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BA12">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="BB12">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -7625,28 +7625,28 @@
         <v>2</v>
       </c>
       <c r="BG12">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="BH12">
         <v>0</v>
       </c>
       <c r="BI12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ12">
         <v>2</v>
       </c>
       <c r="BK12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BL12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM12">
         <v>0</v>
       </c>
       <c r="BN12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BO12">
         <v>0</v>
@@ -7655,151 +7655,151 @@
         <v>2</v>
       </c>
       <c r="BQ12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BS12">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="BT12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BU12">
         <v>0</v>
       </c>
       <c r="BV12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW12">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BX12">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="BY12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BZ12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CA12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CB12">
         <v>0</v>
       </c>
       <c r="CC12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CD12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CE12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CF12">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="CG12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="CH12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CI12">
         <v>0</v>
       </c>
       <c r="CJ12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CK12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CL12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM12">
         <v>0</v>
       </c>
       <c r="CN12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CO12">
         <v>0</v>
       </c>
       <c r="CP12">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="CQ12">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="CR12">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CS12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CT12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CU12">
         <v>0</v>
       </c>
       <c r="CV12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CW12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="CX12">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="CY12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CZ12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="DA12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DB12">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="DC12">
         <v>0</v>
       </c>
       <c r="DD12">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="DE12">
         <v>0</v>
       </c>
       <c r="DF12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="DG12">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="DH12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL12">
         <v>0</v>
       </c>
       <c r="DM12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DN12">
         <v>0</v>
@@ -7811,40 +7811,40 @@
         <v>0</v>
       </c>
       <c r="DQ12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DR12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="DT12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DU12">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="DV12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DW12">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="DX12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DY12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EB12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="EC12">
         <v>2</v>
@@ -7856,31 +7856,31 @@
         <v>0</v>
       </c>
       <c r="EF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EH12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EI12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EJ12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="EN12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EO12">
         <v>0</v>
@@ -7889,16 +7889,16 @@
         <v>0</v>
       </c>
       <c r="EQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="ES12">
         <v>0</v>
       </c>
       <c r="ET12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU12">
         <v>0</v>
@@ -7907,28 +7907,28 @@
         <v>0</v>
       </c>
       <c r="EW12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EX12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EY12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FE12">
         <v>0</v>
@@ -7943,10 +7943,10 @@
         <v>0</v>
       </c>
       <c r="FI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FK12">
         <v>0</v>
@@ -7958,19 +7958,19 @@
         <v>0</v>
       </c>
       <c r="FN12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FO12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FP12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FR12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FS12">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="GB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC12">
         <v>0</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="GF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG12">
         <v>0</v>
@@ -8033,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="GM12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GN12">
         <v>0</v>
@@ -8661,10 +8661,10 @@
         <v>0</v>
       </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>20</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -9251,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>12</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -9275,7 +9275,7 @@
         <v>6</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T15">
         <v>5</v>
@@ -9841,10 +9841,10 @@
         <v>0</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>5</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -10431,10 +10431,10 @@
         <v>0</v>
       </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>5</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -10455,7 +10455,7 @@
         <v>21</v>
       </c>
       <c r="S17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -11021,10 +11021,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -11045,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -11584,25 +11584,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -11623,16 +11623,16 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -11677,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -11692,296 +11692,296 @@
         <v>0</v>
       </c>
       <c r="AL19">
+        <v>3</v>
+      </c>
+      <c r="AM19">
+        <v>2</v>
+      </c>
+      <c r="AN19">
+        <v>14</v>
+      </c>
+      <c r="AO19">
+        <v>3</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>4</v>
+      </c>
+      <c r="AT19">
+        <v>5</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>16</v>
+      </c>
+      <c r="AX19">
+        <v>16</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>1</v>
+      </c>
+      <c r="BA19">
+        <v>3</v>
+      </c>
+      <c r="BB19">
+        <v>11</v>
+      </c>
+      <c r="BC19">
+        <v>1</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>11</v>
+      </c>
+      <c r="BH19">
+        <v>1</v>
+      </c>
+      <c r="BI19">
+        <v>4</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>4</v>
+      </c>
+      <c r="BL19">
+        <v>1</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>4</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>1</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>1</v>
+      </c>
+      <c r="BS19">
+        <v>4</v>
+      </c>
+      <c r="BT19">
+        <v>2</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19">
+        <v>2</v>
+      </c>
+      <c r="BX19">
+        <v>4</v>
+      </c>
+      <c r="BY19">
+        <v>1</v>
+      </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>1</v>
+      </c>
+      <c r="CB19">
+        <v>0</v>
+      </c>
+      <c r="CC19">
+        <v>1</v>
+      </c>
+      <c r="CD19">
+        <v>5</v>
+      </c>
+      <c r="CE19">
+        <v>23</v>
+      </c>
+      <c r="CF19">
+        <v>7</v>
+      </c>
+      <c r="CG19">
+        <v>2</v>
+      </c>
+      <c r="CH19">
+        <v>0</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
+      </c>
+      <c r="CK19">
+        <v>0</v>
+      </c>
+      <c r="CL19">
+        <v>0</v>
+      </c>
+      <c r="CM19">
+        <v>0</v>
+      </c>
+      <c r="CN19">
+        <v>0</v>
+      </c>
+      <c r="CO19">
+        <v>0</v>
+      </c>
+      <c r="CP19">
+        <v>2</v>
+      </c>
+      <c r="CQ19">
+        <v>8</v>
+      </c>
+      <c r="CR19">
+        <v>3</v>
+      </c>
+      <c r="CS19">
+        <v>0</v>
+      </c>
+      <c r="CT19">
+        <v>17</v>
+      </c>
+      <c r="CU19">
+        <v>4</v>
+      </c>
+      <c r="CV19">
+        <v>3</v>
+      </c>
+      <c r="CW19">
+        <v>7</v>
+      </c>
+      <c r="CX19">
+        <v>2</v>
+      </c>
+      <c r="CY19">
+        <v>13</v>
+      </c>
+      <c r="CZ19">
         <v>6</v>
       </c>
-      <c r="AM19">
-        <v>2</v>
-      </c>
-      <c r="AN19">
-        <v>27</v>
-      </c>
-      <c r="AO19">
+      <c r="DA19">
+        <v>9</v>
+      </c>
+      <c r="DB19">
+        <v>1</v>
+      </c>
+      <c r="DC19">
+        <v>1</v>
+      </c>
+      <c r="DD19">
+        <v>4</v>
+      </c>
+      <c r="DE19">
+        <v>0</v>
+      </c>
+      <c r="DF19">
         <v>7</v>
       </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>1</v>
-      </c>
-      <c r="AR19">
-        <v>2</v>
-      </c>
-      <c r="AS19">
-        <v>12</v>
-      </c>
-      <c r="AT19">
-        <v>9</v>
-      </c>
-      <c r="AU19">
-        <v>2</v>
-      </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
-      <c r="AW19">
-        <v>40</v>
-      </c>
-      <c r="AX19">
-        <v>25</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>1</v>
-      </c>
-      <c r="BA19">
-        <v>5</v>
-      </c>
-      <c r="BB19">
-        <v>16</v>
-      </c>
-      <c r="BC19">
-        <v>1</v>
-      </c>
-      <c r="BD19">
-        <v>0</v>
-      </c>
-      <c r="BE19">
-        <v>1</v>
-      </c>
-      <c r="BF19">
-        <v>1</v>
-      </c>
-      <c r="BG19">
-        <v>17</v>
-      </c>
-      <c r="BH19">
-        <v>2</v>
-      </c>
-      <c r="BI19">
-        <v>4</v>
-      </c>
-      <c r="BJ19">
-        <v>0</v>
-      </c>
-      <c r="BK19">
-        <v>7</v>
-      </c>
-      <c r="BL19">
-        <v>1</v>
-      </c>
-      <c r="BM19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
-        <v>9</v>
-      </c>
-      <c r="BO19">
-        <v>0</v>
-      </c>
-      <c r="BP19">
-        <v>1</v>
-      </c>
-      <c r="BQ19">
-        <v>0</v>
-      </c>
-      <c r="BR19">
-        <v>4</v>
-      </c>
-      <c r="BS19">
-        <v>8</v>
-      </c>
-      <c r="BT19">
-        <v>5</v>
-      </c>
-      <c r="BU19">
-        <v>0</v>
-      </c>
-      <c r="BV19">
-        <v>0</v>
-      </c>
-      <c r="BW19">
-        <v>7</v>
-      </c>
-      <c r="BX19">
-        <v>9</v>
-      </c>
-      <c r="BY19">
-        <v>4</v>
-      </c>
-      <c r="BZ19">
-        <v>2</v>
-      </c>
-      <c r="CA19">
-        <v>1</v>
-      </c>
-      <c r="CB19">
-        <v>0</v>
-      </c>
-      <c r="CC19">
-        <v>2</v>
-      </c>
-      <c r="CD19">
-        <v>13</v>
-      </c>
-      <c r="CE19">
-        <v>42</v>
-      </c>
-      <c r="CF19">
-        <v>9</v>
-      </c>
-      <c r="CG19">
-        <v>2</v>
-      </c>
-      <c r="CH19">
-        <v>1</v>
-      </c>
-      <c r="CI19">
-        <v>1</v>
-      </c>
-      <c r="CJ19">
-        <v>0</v>
-      </c>
-      <c r="CK19">
-        <v>0</v>
-      </c>
-      <c r="CL19">
-        <v>0</v>
-      </c>
-      <c r="CM19">
-        <v>0</v>
-      </c>
-      <c r="CN19">
-        <v>2</v>
-      </c>
-      <c r="CO19">
-        <v>0</v>
-      </c>
-      <c r="CP19">
+      <c r="DG19">
+        <v>2</v>
+      </c>
+      <c r="DH19">
+        <v>0</v>
+      </c>
+      <c r="DI19">
+        <v>0</v>
+      </c>
+      <c r="DJ19">
+        <v>2</v>
+      </c>
+      <c r="DK19">
+        <v>1</v>
+      </c>
+      <c r="DL19">
+        <v>0</v>
+      </c>
+      <c r="DM19">
+        <v>1</v>
+      </c>
+      <c r="DN19">
+        <v>0</v>
+      </c>
+      <c r="DO19">
+        <v>0</v>
+      </c>
+      <c r="DP19">
+        <v>0</v>
+      </c>
+      <c r="DQ19">
+        <v>2</v>
+      </c>
+      <c r="DR19">
+        <v>3</v>
+      </c>
+      <c r="DS19">
+        <v>0</v>
+      </c>
+      <c r="DT19">
+        <v>1</v>
+      </c>
+      <c r="DU19">
+        <v>2</v>
+      </c>
+      <c r="DV19">
+        <v>0</v>
+      </c>
+      <c r="DW19">
+        <v>0</v>
+      </c>
+      <c r="DX19">
+        <v>0</v>
+      </c>
+      <c r="DY19">
+        <v>0</v>
+      </c>
+      <c r="DZ19">
+        <v>0</v>
+      </c>
+      <c r="EA19">
+        <v>0</v>
+      </c>
+      <c r="EB19">
+        <v>2</v>
+      </c>
+      <c r="EC19">
+        <v>1</v>
+      </c>
+      <c r="ED19">
         <v>6</v>
       </c>
-      <c r="CQ19">
-        <v>11</v>
-      </c>
-      <c r="CR19">
-        <v>7</v>
-      </c>
-      <c r="CS19">
-        <v>0</v>
-      </c>
-      <c r="CT19">
-        <v>31</v>
-      </c>
-      <c r="CU19">
-        <v>4</v>
-      </c>
-      <c r="CV19">
-        <v>6</v>
-      </c>
-      <c r="CW19">
-        <v>14</v>
-      </c>
-      <c r="CX19">
-        <v>6</v>
-      </c>
-      <c r="CY19">
-        <v>23</v>
-      </c>
-      <c r="CZ19">
-        <v>15</v>
-      </c>
-      <c r="DA19">
-        <v>15</v>
-      </c>
-      <c r="DB19">
-        <v>6</v>
-      </c>
-      <c r="DC19">
-        <v>1</v>
-      </c>
-      <c r="DD19">
-        <v>9</v>
-      </c>
-      <c r="DE19">
-        <v>0</v>
-      </c>
-      <c r="DF19">
-        <v>18</v>
-      </c>
-      <c r="DG19">
-        <v>4</v>
-      </c>
-      <c r="DH19">
-        <v>0</v>
-      </c>
-      <c r="DI19">
-        <v>0</v>
-      </c>
-      <c r="DJ19">
-        <v>2</v>
-      </c>
-      <c r="DK19">
-        <v>1</v>
-      </c>
-      <c r="DL19">
-        <v>0</v>
-      </c>
-      <c r="DM19">
-        <v>4</v>
-      </c>
-      <c r="DN19">
-        <v>0</v>
-      </c>
-      <c r="DO19">
-        <v>1</v>
-      </c>
-      <c r="DP19">
-        <v>0</v>
-      </c>
-      <c r="DQ19">
-        <v>5</v>
-      </c>
-      <c r="DR19">
-        <v>6</v>
-      </c>
-      <c r="DS19">
-        <v>0</v>
-      </c>
-      <c r="DT19">
-        <v>4</v>
-      </c>
-      <c r="DU19">
-        <v>2</v>
-      </c>
-      <c r="DV19">
-        <v>0</v>
-      </c>
-      <c r="DW19">
-        <v>0</v>
-      </c>
-      <c r="DX19">
-        <v>3</v>
-      </c>
-      <c r="DY19">
-        <v>0</v>
-      </c>
-      <c r="DZ19">
-        <v>2</v>
-      </c>
-      <c r="EA19">
-        <v>0</v>
-      </c>
-      <c r="EB19">
-        <v>3</v>
-      </c>
-      <c r="EC19">
-        <v>6</v>
-      </c>
-      <c r="ED19">
-        <v>9</v>
-      </c>
       <c r="EE19">
         <v>0</v>
       </c>
@@ -11992,13 +11992,13 @@
         <v>0</v>
       </c>
       <c r="EH19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EI19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK19">
         <v>2</v>
@@ -12007,13 +12007,13 @@
         <v>1</v>
       </c>
       <c r="EM19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EN19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP19">
         <v>0</v>
@@ -12049,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="FA19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="FB19">
         <v>0</v>
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="FD19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FE19">
         <v>0</v>
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="FG19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FH19">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="FN19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FO19">
         <v>0</v>
@@ -12097,13 +12097,13 @@
         <v>0</v>
       </c>
       <c r="FQ19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="FT19">
         <v>0</v>
@@ -12118,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="FX19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="FY19">
         <v>0</v>
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="GA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB19">
         <v>0</v>
@@ -12201,10 +12201,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -13378,13 +13378,13 @@
         <v>21</v>
       </c>
       <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
         <v>6</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>31</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -13971,10 +13971,10 @@
         <v>0</v>
       </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>6</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -14558,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -15148,13 +15148,13 @@
         <v>4</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -16328,10 +16328,10 @@
         <v>3</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -16945,7 +16945,7 @@
         <v>7</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -17508,13 +17508,13 @@
         <v>3</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -18101,10 +18101,10 @@
         <v>0</v>
       </c>
       <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>16</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -19895,7 +19895,7 @@
         <v>1</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -21048,10 +21048,10 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -22818,13 +22818,13 @@
         <v>8</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>7</v>
-      </c>
-      <c r="L38">
-        <v>2</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -22845,7 +22845,7 @@
         <v>8</v>
       </c>
       <c r="S38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T38">
         <v>3</v>
@@ -23408,13 +23408,13 @@
         <v>3</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -23998,13 +23998,13 @@
         <v>23</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
         <v>17</v>
-      </c>
-      <c r="L40">
-        <v>3</v>
       </c>
       <c r="M40">
         <v>2</v>
@@ -24025,7 +24025,7 @@
         <v>13</v>
       </c>
       <c r="S40">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="T40">
         <v>2</v>
@@ -24588,13 +24588,13 @@
         <v>36</v>
       </c>
       <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
         <v>12</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>32</v>
-      </c>
-      <c r="L41">
-        <v>2</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>12</v>
       </c>
       <c r="S41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T41">
         <v>3</v>
@@ -25771,10 +25771,10 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>2</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -26385,7 +26385,7 @@
         <v>1</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -26948,13 +26948,13 @@
         <v>20</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
         <v>38</v>
-      </c>
-      <c r="L45">
-        <v>2</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -26975,7 +26975,7 @@
         <v>20</v>
       </c>
       <c r="S45">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T45">
         <v>11</v>
@@ -27538,13 +27538,13 @@
         <v>8</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
         <v>22</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -27565,7 +27565,7 @@
         <v>7</v>
       </c>
       <c r="S46">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T46">
         <v>3</v>
@@ -28128,10 +28128,10 @@
         <v>2</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>2</v>
@@ -28155,7 +28155,7 @@
         <v>5</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -29308,13 +29308,13 @@
         <v>48</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
         <v>91</v>
-      </c>
-      <c r="L49">
-        <v>2</v>
       </c>
       <c r="M49">
         <v>3</v>
@@ -29335,7 +29335,7 @@
         <v>44</v>
       </c>
       <c r="S49">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="T49">
         <v>9</v>
@@ -29898,13 +29898,13 @@
         <v>33</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
         <v>55</v>
-      </c>
-      <c r="L50">
-        <v>3</v>
       </c>
       <c r="M50">
         <v>2</v>
@@ -29925,7 +29925,7 @@
         <v>14</v>
       </c>
       <c r="S50">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="T50">
         <v>5</v>
@@ -30491,10 +30491,10 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -31078,13 +31078,13 @@
         <v>3</v>
       </c>
       <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
         <v>5</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>13</v>
-      </c>
-      <c r="L52">
-        <v>2</v>
       </c>
       <c r="M52">
         <v>2</v>
@@ -31668,13 +31668,13 @@
         <v>13</v>
       </c>
       <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
         <v>12</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>28</v>
-      </c>
-      <c r="L53">
-        <v>2</v>
       </c>
       <c r="M53">
         <v>2</v>
@@ -31695,7 +31695,7 @@
         <v>10</v>
       </c>
       <c r="S53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T53">
         <v>2</v>
@@ -32258,13 +32258,13 @@
         <v>15</v>
       </c>
       <c r="J54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
         <v>30</v>
-      </c>
-      <c r="L54">
-        <v>3</v>
       </c>
       <c r="M54">
         <v>2</v>
@@ -32285,7 +32285,7 @@
         <v>17</v>
       </c>
       <c r="S54">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T54">
         <v>1</v>
@@ -32851,10 +32851,10 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -34055,7 +34055,7 @@
         <v>1</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -34618,10 +34618,10 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <v>2</v>
@@ -34645,7 +34645,7 @@
         <v>1</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -35208,13 +35208,13 @@
         <v>47</v>
       </c>
       <c r="J59">
+        <v>3</v>
+      </c>
+      <c r="K59">
         <v>5</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>69</v>
-      </c>
-      <c r="L59">
-        <v>2</v>
       </c>
       <c r="M59">
         <v>2</v>
@@ -35235,7 +35235,7 @@
         <v>17</v>
       </c>
       <c r="S59">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="T59">
         <v>13</v>
@@ -35825,7 +35825,7 @@
         <v>2</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T60">
         <v>1</v>
@@ -36388,13 +36388,13 @@
         <v>6</v>
       </c>
       <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
         <v>7</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>6</v>
-      </c>
-      <c r="L61">
-        <v>2</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -36978,10 +36978,10 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>2</v>
@@ -37568,13 +37568,13 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -37595,7 +37595,7 @@
         <v>4</v>
       </c>
       <c r="S63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -38161,10 +38161,10 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -39338,13 +39338,13 @@
         <v>5</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
         <v>11</v>
-      </c>
-      <c r="L66">
-        <v>2</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -39365,7 +39365,7 @@
         <v>9</v>
       </c>
       <c r="S66">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -39928,7 +39928,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -40518,10 +40518,10 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>2</v>
@@ -41111,10 +41111,10 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M69">
         <v>2</v>
@@ -41701,10 +41701,10 @@
         <v>0</v>
       </c>
       <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
         <v>11</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -41725,7 +41725,7 @@
         <v>5</v>
       </c>
       <c r="S70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T70">
         <v>0</v>
@@ -42288,13 +42288,13 @@
         <v>5</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
         <v>26</v>
-      </c>
-      <c r="L71">
-        <v>2</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -42315,7 +42315,7 @@
         <v>6</v>
       </c>
       <c r="S71">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T71">
         <v>1</v>
@@ -42878,13 +42878,13 @@
         <v>8</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
         <v>9</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -42905,7 +42905,7 @@
         <v>10</v>
       </c>
       <c r="S72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -43468,10 +43468,10 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -44058,13 +44058,13 @@
         <v>1</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -44648,13 +44648,13 @@
         <v>27</v>
       </c>
       <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
         <v>16</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>48</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -44675,7 +44675,7 @@
         <v>13</v>
       </c>
       <c r="S75">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T75">
         <v>3</v>
@@ -45238,13 +45238,13 @@
         <v>13</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
         <v>21</v>
-      </c>
-      <c r="L76">
-        <v>2</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -45265,7 +45265,7 @@
         <v>11</v>
       </c>
       <c r="S76">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T76">
         <v>2</v>
@@ -45831,10 +45831,10 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -45855,7 +45855,7 @@
         <v>6</v>
       </c>
       <c r="S77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -46418,13 +46418,13 @@
         <v>2</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -46445,7 +46445,7 @@
         <v>1</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -47008,13 +47008,13 @@
         <v>2</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>2</v>
@@ -48188,13 +48188,13 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>2</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -48215,7 +48215,7 @@
         <v>1</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T81">
         <v>1</v>
@@ -48781,10 +48781,10 @@
         <v>0</v>
       </c>
       <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
         <v>12</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
       </c>
       <c r="M82">
         <v>1</v>
@@ -48805,7 +48805,7 @@
         <v>13</v>
       </c>
       <c r="S82">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="T82">
         <v>0</v>
@@ -49368,13 +49368,13 @@
         <v>1</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -49395,7 +49395,7 @@
         <v>7</v>
       </c>
       <c r="S83">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="T83">
         <v>1</v>
@@ -49961,10 +49961,10 @@
         <v>2</v>
       </c>
       <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
         <v>13</v>
-      </c>
-      <c r="L84">
-        <v>2</v>
       </c>
       <c r="M84">
         <v>3</v>
@@ -49985,7 +49985,7 @@
         <v>12</v>
       </c>
       <c r="S84">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T84">
         <v>4</v>
@@ -50551,10 +50551,10 @@
         <v>1</v>
       </c>
       <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
         <v>17</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -51141,10 +51141,10 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -51165,7 +51165,7 @@
         <v>1</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -51755,7 +51755,7 @@
         <v>1</v>
       </c>
       <c r="S87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -52321,10 +52321,10 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -52911,10 +52911,10 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -53501,10 +53501,10 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -54681,11 +54681,11 @@
         <v>0</v>
       </c>
       <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
         <v>5</v>
       </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
       <c r="M92">
         <v>0</v>
       </c>
@@ -54705,7 +54705,7 @@
         <v>0</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -55858,13 +55858,13 @@
         <v>20</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
         <v>18</v>
-      </c>
-      <c r="L94">
-        <v>2</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -55885,7 +55885,7 @@
         <v>10</v>
       </c>
       <c r="S94">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T94">
         <v>2</v>
@@ -56451,10 +56451,10 @@
         <v>4</v>
       </c>
       <c r="K95">
+        <v>4</v>
+      </c>
+      <c r="L95">
         <v>56</v>
-      </c>
-      <c r="L95">
-        <v>2</v>
       </c>
       <c r="M95">
         <v>2</v>
@@ -56475,7 +56475,7 @@
         <v>17</v>
       </c>
       <c r="S95">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T95">
         <v>7</v>
@@ -57038,13 +57038,13 @@
         <v>8</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
         <v>12</v>
-      </c>
-      <c r="L96">
-        <v>2</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -57065,7 +57065,7 @@
         <v>11</v>
       </c>
       <c r="S96">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -57628,13 +57628,13 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -58218,13 +58218,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
       <c r="L98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -58245,7 +58245,7 @@
         <v>4</v>
       </c>
       <c r="S98">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -59401,10 +59401,10 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -59425,7 +59425,7 @@
         <v>1</v>
       </c>
       <c r="S100">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -59988,13 +59988,13 @@
         <v>5</v>
       </c>
       <c r="J101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K101">
+        <v>3</v>
+      </c>
+      <c r="L101">
         <v>9</v>
-      </c>
-      <c r="L101">
-        <v>2</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -60015,7 +60015,7 @@
         <v>4</v>
       </c>
       <c r="S101">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T101">
         <v>0</v>
@@ -60581,10 +60581,10 @@
         <v>2</v>
       </c>
       <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
         <v>39</v>
-      </c>
-      <c r="L102">
-        <v>2</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -60605,7 +60605,7 @@
         <v>5</v>
       </c>
       <c r="S102">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T102">
         <v>2</v>
@@ -61171,10 +61171,10 @@
         <v>2</v>
       </c>
       <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
         <v>7</v>
-      </c>
-      <c r="L103">
-        <v>2</v>
       </c>
       <c r="M103">
         <v>4</v>
@@ -61195,7 +61195,7 @@
         <v>39</v>
       </c>
       <c r="S103">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="T103">
         <v>1</v>
@@ -61761,10 +61761,10 @@
         <v>0</v>
       </c>
       <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>7</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -61785,7 +61785,7 @@
         <v>11</v>
       </c>
       <c r="S104">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="T104">
         <v>1</v>
@@ -62348,13 +62348,13 @@
         <v>1</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K105">
         <v>0</v>
       </c>
       <c r="L105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -62375,7 +62375,7 @@
         <v>3</v>
       </c>
       <c r="S105">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T105">
         <v>0</v>
@@ -62938,13 +62938,13 @@
         <v>11</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
         <v>40</v>
-      </c>
-      <c r="L106">
-        <v>0</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -62965,7 +62965,7 @@
         <v>13</v>
       </c>
       <c r="S106">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T106">
         <v>1</v>
@@ -64118,13 +64118,13 @@
         <v>17</v>
       </c>
       <c r="J108">
+        <v>2</v>
+      </c>
+      <c r="K108">
         <v>5</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <v>27</v>
-      </c>
-      <c r="L108">
-        <v>2</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -64145,7 +64145,7 @@
         <v>10</v>
       </c>
       <c r="S108">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T108">
         <v>2</v>
@@ -65298,13 +65298,13 @@
         <v>4</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
         <v>7</v>
-      </c>
-      <c r="L110">
-        <v>2</v>
       </c>
       <c r="M110">
         <v>1</v>
@@ -65325,7 +65325,7 @@
         <v>29</v>
       </c>
       <c r="S110">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="T110">
         <v>0</v>
@@ -65891,10 +65891,10 @@
         <v>0</v>
       </c>
       <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
         <v>18</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -65915,7 +65915,7 @@
         <v>3</v>
       </c>
       <c r="S111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T111">
         <v>0</v>
@@ -66481,10 +66481,10 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -67071,10 +67071,10 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -67661,10 +67661,10 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -68251,10 +68251,10 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -69431,10 +69431,10 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -69455,7 +69455,7 @@
         <v>4</v>
       </c>
       <c r="S117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T117">
         <v>0</v>
@@ -70635,7 +70635,7 @@
         <v>1</v>
       </c>
       <c r="S119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T119">
         <v>0</v>
@@ -71791,10 +71791,10 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M121">
         <v>1</v>
@@ -71815,7 +71815,7 @@
         <v>9</v>
       </c>
       <c r="S121">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T121">
         <v>1</v>
@@ -72381,10 +72381,10 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -72405,7 +72405,7 @@
         <v>8</v>
       </c>
       <c r="S122">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T122">
         <v>0</v>
@@ -72968,13 +72968,13 @@
         <v>2</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
         <v>8</v>
-      </c>
-      <c r="L123">
-        <v>2</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -73558,13 +73558,13 @@
         <v>5</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M124">
         <v>1</v>
@@ -73585,7 +73585,7 @@
         <v>8</v>
       </c>
       <c r="S124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T124">
         <v>0</v>
@@ -74148,13 +74148,13 @@
         <v>13</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
         <v>15</v>
-      </c>
-      <c r="L125">
-        <v>2</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -74741,10 +74741,10 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M126">
         <v>1</v>
@@ -75331,10 +75331,10 @@
         <v>0</v>
       </c>
       <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
         <v>18</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -75921,10 +75921,10 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -75945,7 +75945,7 @@
         <v>8</v>
       </c>
       <c r="S128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T128">
         <v>0</v>
@@ -76511,10 +76511,10 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -77101,10 +77101,10 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -77125,7 +77125,7 @@
         <v>1</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T130">
         <v>0</v>
@@ -77691,10 +77691,10 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -78278,13 +78278,13 @@
         <v>7</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
         <v>5</v>
-      </c>
-      <c r="L132">
-        <v>2</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -78305,7 +78305,7 @@
         <v>16</v>
       </c>
       <c r="S132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T132">
         <v>0</v>
@@ -78868,10 +78868,10 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L133">
         <v>2</v>
@@ -78895,7 +78895,7 @@
         <v>3</v>
       </c>
       <c r="S133">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T133">
         <v>0</v>
@@ -79458,10 +79458,10 @@
         <v>2</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L134">
         <v>2</v>
@@ -79485,7 +79485,7 @@
         <v>4</v>
       </c>
       <c r="S134">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T134">
         <v>0</v>
@@ -80048,10 +80048,10 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135">
         <v>0</v>
@@ -80641,10 +80641,10 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -81231,10 +81231,10 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -81818,13 +81818,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -81845,7 +81845,7 @@
         <v>2</v>
       </c>
       <c r="S138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T138">
         <v>0</v>
@@ -82408,13 +82408,13 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -82435,7 +82435,7 @@
         <v>5</v>
       </c>
       <c r="S139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T139">
         <v>1</v>
@@ -83001,10 +83001,10 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -83025,7 +83025,7 @@
         <v>0</v>
       </c>
       <c r="S140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T140">
         <v>0</v>
@@ -83588,13 +83588,13 @@
         <v>2</v>
       </c>
       <c r="J141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141">
         <v>1</v>
@@ -84181,10 +84181,10 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M142">
         <v>1</v>
@@ -84768,13 +84768,13 @@
         <v>6</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -84795,7 +84795,7 @@
         <v>3</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T143">
         <v>0</v>
@@ -85358,13 +85358,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K144">
         <v>0</v>
       </c>
       <c r="L144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -85385,7 +85385,7 @@
         <v>0</v>
       </c>
       <c r="S144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T144">
         <v>0</v>
@@ -85975,7 +85975,7 @@
         <v>2</v>
       </c>
       <c r="S145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T145">
         <v>0</v>
@@ -87131,10 +87131,10 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -87718,13 +87718,13 @@
         <v>1</v>
       </c>
       <c r="J148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K148">
         <v>0</v>
       </c>
       <c r="L148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M148">
         <v>1</v>
@@ -88308,10 +88308,10 @@
         <v>1</v>
       </c>
       <c r="J149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L149">
         <v>0</v>
@@ -88901,10 +88901,10 @@
         <v>0</v>
       </c>
       <c r="K150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -90668,13 +90668,13 @@
         <v>1</v>
       </c>
       <c r="J153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K153">
         <v>2</v>
       </c>
       <c r="L153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M153">
         <v>0</v>
@@ -91261,10 +91261,10 @@
         <v>0</v>
       </c>
       <c r="K154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -91851,10 +91851,10 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M155">
         <v>0</v>
@@ -92441,10 +92441,10 @@
         <v>0</v>
       </c>
       <c r="K156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M156">
         <v>0</v>
@@ -93028,13 +93028,13 @@
         <v>2</v>
       </c>
       <c r="J157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M157">
         <v>0</v>
@@ -93055,7 +93055,7 @@
         <v>3</v>
       </c>
       <c r="S157">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T157">
         <v>0</v>
@@ -93621,10 +93621,10 @@
         <v>0</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M158">
         <v>0</v>
@@ -94211,10 +94211,10 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159">
         <v>0</v>
@@ -94801,10 +94801,10 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M160">
         <v>0</v>
@@ -94825,7 +94825,7 @@
         <v>2</v>
       </c>
       <c r="S160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T160">
         <v>0</v>
@@ -95978,10 +95978,10 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L162">
         <v>0</v>
@@ -96595,7 +96595,7 @@
         <v>0</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T163">
         <v>1</v>
@@ -97751,10 +97751,10 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -98341,10 +98341,10 @@
         <v>0</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M166">
         <v>1</v>
@@ -100698,13 +100698,13 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K170">
         <v>0</v>
       </c>
       <c r="L170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M170">
         <v>0</v>
@@ -100725,7 +100725,7 @@
         <v>2</v>
       </c>
       <c r="S170">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T170">
         <v>0</v>
@@ -101288,13 +101288,13 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K171">
         <v>0</v>
       </c>
       <c r="L171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M171">
         <v>0</v>
@@ -101881,10 +101881,10 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M172">
         <v>0</v>
@@ -102471,10 +102471,10 @@
         <v>0</v>
       </c>
       <c r="K173">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M173">
         <v>0</v>
@@ -102495,7 +102495,7 @@
         <v>4</v>
       </c>
       <c r="S173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T173">
         <v>0</v>
@@ -103061,10 +103061,10 @@
         <v>0</v>
       </c>
       <c r="K174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M174">
         <v>0</v>
@@ -103085,7 +103085,7 @@
         <v>1</v>
       </c>
       <c r="S174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T174">
         <v>0</v>
@@ -103675,7 +103675,7 @@
         <v>2</v>
       </c>
       <c r="S175">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T175">
         <v>0</v>
@@ -106625,7 +106625,7 @@
         <v>1</v>
       </c>
       <c r="S180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T180">
         <v>0</v>
@@ -108395,7 +108395,7 @@
         <v>0</v>
       </c>
       <c r="S183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T183">
         <v>0</v>
@@ -108961,10 +108961,10 @@
         <v>0</v>
       </c>
       <c r="K184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -111321,10 +111321,10 @@
         <v>0</v>
       </c>
       <c r="K188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M188">
         <v>0</v>
@@ -115451,10 +115451,10 @@
         <v>0</v>
       </c>
       <c r="K195">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M195">
         <v>0</v>
